--- a/src/main/resources/Financial_Report_2022.xlsx
+++ b/src/main/resources/Financial_Report_2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javar.JAVARA-LAPTOP\Documents\AKUC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\projects\church-app\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B6C8F3-A443-42CD-9048-FDEEADB45C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F051C835-1089-4D75-9BDE-24D074746C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="-110" windowWidth="18410" windowHeight="11020" xr2:uid="{7F8DEBD6-32E0-4BF8-87C4-D1C13E633F04}"/>
+    <workbookView xWindow="14160" yWindow="-15090" windowWidth="14160" windowHeight="13950" xr2:uid="{7F8DEBD6-32E0-4BF8-87C4-D1C13E633F04}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -1503,6 +1503,53 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1548,44 +1595,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1618,6 +1627,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1630,30 +1652,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1994,69 +1994,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.5">
-      <c r="A1" s="145" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
-      <c r="K1" s="147"/>
+      <c r="A1" s="131" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="131"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
     </row>
     <row r="2" spans="1:11" ht="18.5">
-      <c r="A2" s="145" t="s">
+      <c r="A2" s="131" t="s">
         <v>251</v>
       </c>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="147"/>
-      <c r="K2" s="147"/>
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
     </row>
     <row r="3" spans="1:11" ht="11.5" customHeight="1">
-      <c r="A3" s="148"/>
-      <c r="B3" s="149"/>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="151"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="151"/>
+      <c r="A3" s="134"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="152" t="s">
+      <c r="A4" s="138" t="s">
         <v>221</v>
       </c>
-      <c r="B4" s="153"/>
-      <c r="C4" s="154"/>
-      <c r="D4" s="154"/>
-      <c r="E4" s="155"/>
-      <c r="G4" s="156" t="s">
+      <c r="B4" s="139"/>
+      <c r="C4" s="140"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="141"/>
+      <c r="G4" s="142" t="s">
         <v>223</v>
       </c>
-      <c r="H4" s="157"/>
-      <c r="I4" s="157"/>
-      <c r="J4" s="157"/>
-      <c r="K4" s="158"/>
+      <c r="H4" s="143"/>
+      <c r="I4" s="143"/>
+      <c r="J4" s="143"/>
+      <c r="K4" s="144"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="135" t="s">
+      <c r="A5" s="152" t="s">
         <v>195</v>
       </c>
-      <c r="B5" s="136"/>
+      <c r="B5" s="153"/>
       <c r="C5" s="118" t="str">
         <f>Offering!E5</f>
         <v>'22 Budget</v>
@@ -2068,10 +2068,10 @@
         <f>Offering!G5</f>
         <v>'22 Actual</v>
       </c>
-      <c r="G5" s="129" t="s">
+      <c r="G5" s="146" t="s">
         <v>224</v>
       </c>
-      <c r="H5" s="130"/>
+      <c r="H5" s="147"/>
       <c r="I5" s="118" t="str">
         <f>Expenditure!E4</f>
         <v>'22 Budget</v>
@@ -2497,11 +2497,11 @@
         <f>Offering!$G$17</f>
         <v>0</v>
       </c>
-      <c r="G17" s="140"/>
-      <c r="H17" s="141"/>
-      <c r="I17" s="141"/>
-      <c r="J17" s="141"/>
-      <c r="K17" s="142"/>
+      <c r="G17" s="157"/>
+      <c r="H17" s="158"/>
+      <c r="I17" s="158"/>
+      <c r="J17" s="158"/>
+      <c r="K17" s="159"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="55"/>
@@ -2522,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="62"/>
-      <c r="H18" s="182" t="str">
+      <c r="H18" s="129" t="str">
         <f>Expenditure!B114</f>
         <v>Program Support</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="62"/>
-      <c r="H19" s="182" t="str">
+      <c r="H19" s="129" t="str">
         <f>Expenditure!B115</f>
         <v>M &amp; S</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="62"/>
-      <c r="H20" s="182" t="str">
+      <c r="H20" s="129" t="str">
         <f>Expenditure!B116</f>
         <v>Refugee Assist</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="62"/>
-      <c r="H21" s="183" t="str">
+      <c r="H21" s="130" t="str">
         <f>Expenditure!B117</f>
         <v>New Horizons for Seniors Program</v>
       </c>
@@ -2645,10 +2645,10 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="131" t="s">
+      <c r="A22" s="148" t="s">
         <v>211</v>
       </c>
-      <c r="B22" s="132"/>
+      <c r="B22" s="149"/>
       <c r="C22" s="104">
         <f t="shared" ref="C22:E22" si="2">SUBTOTAL(9,C6:C21)</f>
         <v>144200</v>
@@ -2662,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="60"/>
-      <c r="H22" s="183" t="str">
+      <c r="H22" s="130" t="str">
         <f>Expenditure!B118</f>
         <v>Embracing the Spirit Growth Grants</v>
       </c>
@@ -2680,13 +2680,13 @@
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="137"/>
-      <c r="B23" s="138"/>
-      <c r="C23" s="138"/>
-      <c r="D23" s="138"/>
-      <c r="E23" s="139"/>
+      <c r="A23" s="154"/>
+      <c r="B23" s="155"/>
+      <c r="C23" s="155"/>
+      <c r="D23" s="155"/>
+      <c r="E23" s="156"/>
       <c r="G23" s="62"/>
-      <c r="H23" s="182" t="str">
+      <c r="H23" s="129" t="str">
         <f>Expenditure!B119</f>
         <v>Water well &amp; Eugene Bell Canada Foundation</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="62"/>
-      <c r="H24" s="182" t="str">
+      <c r="H24" s="129" t="str">
         <f>Expenditure!B120</f>
         <v>Designated fund</v>
       </c>
@@ -2840,10 +2840,10 @@
       <c r="K28" s="61"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="131" t="s">
+      <c r="A29" s="148" t="s">
         <v>243</v>
       </c>
-      <c r="B29" s="132"/>
+      <c r="B29" s="149"/>
       <c r="C29" s="104">
         <f>SUBTOTAL(9,C24:C28)</f>
         <v>40500</v>
@@ -2863,11 +2863,11 @@
       <c r="K29" s="61"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="137"/>
-      <c r="B30" s="138"/>
-      <c r="C30" s="138"/>
-      <c r="D30" s="138"/>
-      <c r="E30" s="139"/>
+      <c r="A30" s="154"/>
+      <c r="B30" s="155"/>
+      <c r="C30" s="155"/>
+      <c r="D30" s="155"/>
+      <c r="E30" s="156"/>
       <c r="G30" s="60"/>
       <c r="H30" s="93"/>
       <c r="I30" s="93"/>
@@ -2938,10 +2938,10 @@
       <c r="K33" s="61"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="133" t="s">
+      <c r="A34" s="150" t="s">
         <v>244</v>
       </c>
-      <c r="B34" s="134"/>
+      <c r="B34" s="151"/>
       <c r="C34" s="108">
         <f>SUBTOTAL(9,C6:C33)</f>
         <v>248117.44</v>
@@ -2954,10 +2954,10 @@
         <f>SUBTOTAL(9,E6:E33)</f>
         <v>0</v>
       </c>
-      <c r="G34" s="143" t="s">
+      <c r="G34" s="160" t="s">
         <v>246</v>
       </c>
-      <c r="H34" s="144"/>
+      <c r="H34" s="161"/>
       <c r="I34" s="116">
         <f>SUBTOTAL(9,I6:I25)</f>
         <v>248117.44</v>
@@ -2972,27 +2972,22 @@
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="128" t="s">
+      <c r="A36" s="145" t="s">
         <v>227</v>
       </c>
-      <c r="B36" s="128"/>
-      <c r="C36" s="128"/>
-      <c r="D36" s="128"/>
-      <c r="E36" s="128"/>
-      <c r="F36" s="128"/>
-      <c r="G36" s="128"/>
-      <c r="H36" s="128"/>
-      <c r="I36" s="128"/>
-      <c r="J36" s="128"/>
-      <c r="K36" s="128"/>
+      <c r="B36" s="145"/>
+      <c r="C36" s="145"/>
+      <c r="D36" s="145"/>
+      <c r="E36" s="145"/>
+      <c r="F36" s="145"/>
+      <c r="G36" s="145"/>
+      <c r="H36" s="145"/>
+      <c r="I36" s="145"/>
+      <c r="J36" s="145"/>
+      <c r="K36" s="145"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="G4:K4"/>
     <mergeCell ref="A36:K36"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A29:B29"/>
@@ -3003,6 +2998,11 @@
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="G17:K17"/>
     <mergeCell ref="G34:H34"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="G4:K4"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3031,15 +3031,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.5">
-      <c r="A1" s="162" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164"/>
+      <c r="A1" s="165" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="165"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
@@ -3054,15 +3054,15 @@
       <c r="S1" s="7"/>
     </row>
     <row r="2" spans="1:19" ht="15.5">
-      <c r="A2" s="162" t="s">
+      <c r="A2" s="165" t="s">
         <v>252</v>
       </c>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
@@ -3077,15 +3077,15 @@
       <c r="S2" s="7"/>
     </row>
     <row r="3" spans="1:19" ht="15.5">
-      <c r="A3" s="165" t="s">
+      <c r="A3" s="168" t="s">
         <v>220</v>
       </c>
-      <c r="B3" s="165"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="164"/>
-      <c r="F3" s="164"/>
-      <c r="G3" s="164"/>
+      <c r="B3" s="168"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -3100,10 +3100,10 @@
       <c r="S3" s="7"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="166" t="s">
+      <c r="A4" s="169" t="s">
         <v>221</v>
       </c>
-      <c r="B4" s="166"/>
+      <c r="B4" s="169"/>
       <c r="C4" s="17"/>
       <c r="D4" s="18"/>
       <c r="E4" s="19"/>
@@ -3123,10 +3123,10 @@
       <c r="S4" s="7"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="167" t="s">
+      <c r="A5" s="170" t="s">
         <v>195</v>
       </c>
-      <c r="B5" s="167"/>
+      <c r="B5" s="170"/>
       <c r="C5" s="120" t="s">
         <v>247</v>
       </c>
@@ -3735,10 +3735,10 @@
       <c r="S21" s="7"/>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="168" t="s">
+      <c r="A22" s="171" t="s">
         <v>211</v>
       </c>
-      <c r="B22" s="168"/>
+      <c r="B22" s="171"/>
       <c r="C22" s="11">
         <f>SUBTOTAL(9,C6:C21)</f>
         <v>148000</v>
@@ -3809,25 +3809,25 @@
       </c>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" s="169"/>
-      <c r="B23" s="170"/>
-      <c r="C23" s="170"/>
-      <c r="D23" s="170"/>
-      <c r="E23" s="170"/>
-      <c r="F23" s="170"/>
-      <c r="G23" s="170"/>
-      <c r="H23" s="159"/>
-      <c r="I23" s="160"/>
-      <c r="J23" s="160"/>
-      <c r="K23" s="160"/>
-      <c r="L23" s="160"/>
-      <c r="M23" s="160"/>
-      <c r="N23" s="160"/>
-      <c r="O23" s="160"/>
-      <c r="P23" s="160"/>
-      <c r="Q23" s="160"/>
-      <c r="R23" s="160"/>
-      <c r="S23" s="160"/>
+      <c r="A23" s="172"/>
+      <c r="B23" s="173"/>
+      <c r="C23" s="173"/>
+      <c r="D23" s="173"/>
+      <c r="E23" s="173"/>
+      <c r="F23" s="173"/>
+      <c r="G23" s="173"/>
+      <c r="H23" s="162"/>
+      <c r="I23" s="163"/>
+      <c r="J23" s="163"/>
+      <c r="K23" s="163"/>
+      <c r="L23" s="163"/>
+      <c r="M23" s="163"/>
+      <c r="N23" s="163"/>
+      <c r="O23" s="163"/>
+      <c r="P23" s="163"/>
+      <c r="Q23" s="163"/>
+      <c r="R23" s="163"/>
+      <c r="S23" s="163"/>
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="13"/>
@@ -3992,10 +3992,10 @@
       <c r="S28" s="7"/>
     </row>
     <row r="29" spans="1:19">
-      <c r="A29" s="168" t="s">
+      <c r="A29" s="171" t="s">
         <v>214</v>
       </c>
-      <c r="B29" s="168"/>
+      <c r="B29" s="171"/>
       <c r="C29" s="11">
         <f>SUBTOTAL(9,C24:C28)</f>
         <v>15000</v>
@@ -4066,25 +4066,25 @@
       </c>
     </row>
     <row r="30" spans="1:19">
-      <c r="A30" s="169"/>
-      <c r="B30" s="170"/>
-      <c r="C30" s="170"/>
-      <c r="D30" s="170"/>
-      <c r="E30" s="170"/>
-      <c r="F30" s="170"/>
-      <c r="G30" s="170"/>
-      <c r="H30" s="159"/>
-      <c r="I30" s="160"/>
-      <c r="J30" s="160"/>
-      <c r="K30" s="160"/>
-      <c r="L30" s="160"/>
-      <c r="M30" s="160"/>
-      <c r="N30" s="160"/>
-      <c r="O30" s="160"/>
-      <c r="P30" s="160"/>
-      <c r="Q30" s="160"/>
-      <c r="R30" s="160"/>
-      <c r="S30" s="160"/>
+      <c r="A30" s="172"/>
+      <c r="B30" s="173"/>
+      <c r="C30" s="173"/>
+      <c r="D30" s="173"/>
+      <c r="E30" s="173"/>
+      <c r="F30" s="173"/>
+      <c r="G30" s="173"/>
+      <c r="H30" s="162"/>
+      <c r="I30" s="163"/>
+      <c r="J30" s="163"/>
+      <c r="K30" s="163"/>
+      <c r="L30" s="163"/>
+      <c r="M30" s="163"/>
+      <c r="N30" s="163"/>
+      <c r="O30" s="163"/>
+      <c r="P30" s="163"/>
+      <c r="Q30" s="163"/>
+      <c r="R30" s="163"/>
+      <c r="S30" s="163"/>
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="15" t="s">
@@ -4220,10 +4220,10 @@
       <c r="S33" s="7"/>
     </row>
     <row r="34" spans="1:19">
-      <c r="A34" s="161" t="s">
+      <c r="A34" s="164" t="s">
         <v>218</v>
       </c>
-      <c r="B34" s="161"/>
+      <c r="B34" s="164"/>
       <c r="C34" s="23">
         <f>SUBTOTAL(9,C6:C33)</f>
         <v>225490.4</v>
@@ -4350,15 +4350,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.5">
-      <c r="A1" s="171" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="172"/>
-      <c r="C1" s="172"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="172"/>
-      <c r="G1" s="164"/>
+      <c r="A1" s="179" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="167"/>
       <c r="H1" s="24"/>
       <c r="I1" s="24"/>
       <c r="J1" s="24"/>
@@ -4373,15 +4373,15 @@
       <c r="S1" s="24"/>
     </row>
     <row r="2" spans="1:19" ht="15.5">
-      <c r="A2" s="173">
+      <c r="A2" s="181">
         <v>2022</v>
       </c>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="164"/>
+      <c r="B2" s="179"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="167"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
       <c r="J2" s="24"/>
@@ -4396,15 +4396,15 @@
       <c r="S2" s="24"/>
     </row>
     <row r="3" spans="1:19" ht="15.5">
-      <c r="A3" s="174" t="s">
+      <c r="A3" s="182" t="s">
         <v>222</v>
       </c>
-      <c r="B3" s="174"/>
-      <c r="C3" s="174"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="172"/>
-      <c r="F3" s="172"/>
-      <c r="G3" s="164"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="179"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="167"/>
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
       <c r="J3" s="24"/>
@@ -4478,48 +4478,48 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="14.5">
-      <c r="A5" s="175"/>
-      <c r="B5" s="176"/>
-      <c r="C5" s="176"/>
-      <c r="D5" s="176"/>
-      <c r="E5" s="176"/>
-      <c r="F5" s="176"/>
-      <c r="G5" s="176"/>
-      <c r="H5" s="177"/>
-      <c r="I5" s="160"/>
-      <c r="J5" s="160"/>
-      <c r="K5" s="160"/>
-      <c r="L5" s="160"/>
-      <c r="M5" s="160"/>
-      <c r="N5" s="160"/>
-      <c r="O5" s="160"/>
-      <c r="P5" s="160"/>
-      <c r="Q5" s="160"/>
-      <c r="R5" s="160"/>
-      <c r="S5" s="160"/>
+      <c r="A5" s="176"/>
+      <c r="B5" s="177"/>
+      <c r="C5" s="177"/>
+      <c r="D5" s="177"/>
+      <c r="E5" s="177"/>
+      <c r="F5" s="177"/>
+      <c r="G5" s="177"/>
+      <c r="H5" s="174"/>
+      <c r="I5" s="163"/>
+      <c r="J5" s="163"/>
+      <c r="K5" s="163"/>
+      <c r="L5" s="163"/>
+      <c r="M5" s="163"/>
+      <c r="N5" s="163"/>
+      <c r="O5" s="163"/>
+      <c r="P5" s="163"/>
+      <c r="Q5" s="163"/>
+      <c r="R5" s="163"/>
+      <c r="S5" s="163"/>
     </row>
     <row r="6" spans="1:19" ht="14.5">
-      <c r="A6" s="175" t="s">
+      <c r="A6" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="176"/>
-      <c r="C6" s="176"/>
-      <c r="D6" s="176"/>
-      <c r="E6" s="176"/>
-      <c r="F6" s="176"/>
-      <c r="G6" s="176"/>
-      <c r="H6" s="177"/>
-      <c r="I6" s="160"/>
-      <c r="J6" s="160"/>
-      <c r="K6" s="160"/>
-      <c r="L6" s="160"/>
-      <c r="M6" s="160"/>
-      <c r="N6" s="160"/>
-      <c r="O6" s="160"/>
-      <c r="P6" s="160"/>
-      <c r="Q6" s="160"/>
-      <c r="R6" s="160"/>
-      <c r="S6" s="160"/>
+      <c r="B6" s="177"/>
+      <c r="C6" s="177"/>
+      <c r="D6" s="177"/>
+      <c r="E6" s="177"/>
+      <c r="F6" s="177"/>
+      <c r="G6" s="177"/>
+      <c r="H6" s="174"/>
+      <c r="I6" s="163"/>
+      <c r="J6" s="163"/>
+      <c r="K6" s="163"/>
+      <c r="L6" s="163"/>
+      <c r="M6" s="163"/>
+      <c r="N6" s="163"/>
+      <c r="O6" s="163"/>
+      <c r="P6" s="163"/>
+      <c r="Q6" s="163"/>
+      <c r="R6" s="163"/>
+      <c r="S6" s="163"/>
     </row>
     <row r="7" spans="1:19" ht="14.5">
       <c r="A7" s="29" t="s">
@@ -5434,25 +5434,25 @@
       </c>
     </row>
     <row r="33" spans="1:19" ht="14.5">
-      <c r="A33" s="175"/>
-      <c r="B33" s="170"/>
-      <c r="C33" s="170"/>
-      <c r="D33" s="170"/>
-      <c r="E33" s="170"/>
-      <c r="F33" s="170"/>
-      <c r="G33" s="170"/>
+      <c r="A33" s="176"/>
+      <c r="B33" s="173"/>
+      <c r="C33" s="173"/>
+      <c r="D33" s="173"/>
+      <c r="E33" s="173"/>
+      <c r="F33" s="173"/>
+      <c r="G33" s="173"/>
       <c r="H33" s="178"/>
-      <c r="I33" s="160"/>
-      <c r="J33" s="160"/>
-      <c r="K33" s="160"/>
-      <c r="L33" s="160"/>
-      <c r="M33" s="160"/>
-      <c r="N33" s="160"/>
-      <c r="O33" s="160"/>
-      <c r="P33" s="160"/>
-      <c r="Q33" s="160"/>
-      <c r="R33" s="160"/>
-      <c r="S33" s="160"/>
+      <c r="I33" s="163"/>
+      <c r="J33" s="163"/>
+      <c r="K33" s="163"/>
+      <c r="L33" s="163"/>
+      <c r="M33" s="163"/>
+      <c r="N33" s="163"/>
+      <c r="O33" s="163"/>
+      <c r="P33" s="163"/>
+      <c r="Q33" s="163"/>
+      <c r="R33" s="163"/>
+      <c r="S33" s="163"/>
     </row>
     <row r="34" spans="1:19" ht="14.5">
       <c r="A34" s="37" t="s">
@@ -5995,25 +5995,25 @@
       </c>
     </row>
     <row r="48" spans="1:19" ht="14.5">
-      <c r="A48" s="175"/>
-      <c r="B48" s="160"/>
-      <c r="C48" s="160"/>
-      <c r="D48" s="160"/>
-      <c r="E48" s="160"/>
-      <c r="F48" s="160"/>
-      <c r="G48" s="160"/>
-      <c r="H48" s="177"/>
-      <c r="I48" s="160"/>
-      <c r="J48" s="160"/>
-      <c r="K48" s="160"/>
-      <c r="L48" s="160"/>
-      <c r="M48" s="160"/>
-      <c r="N48" s="160"/>
-      <c r="O48" s="160"/>
-      <c r="P48" s="160"/>
-      <c r="Q48" s="160"/>
-      <c r="R48" s="160"/>
-      <c r="S48" s="160"/>
+      <c r="A48" s="176"/>
+      <c r="B48" s="163"/>
+      <c r="C48" s="163"/>
+      <c r="D48" s="163"/>
+      <c r="E48" s="163"/>
+      <c r="F48" s="163"/>
+      <c r="G48" s="163"/>
+      <c r="H48" s="174"/>
+      <c r="I48" s="163"/>
+      <c r="J48" s="163"/>
+      <c r="K48" s="163"/>
+      <c r="L48" s="163"/>
+      <c r="M48" s="163"/>
+      <c r="N48" s="163"/>
+      <c r="O48" s="163"/>
+      <c r="P48" s="163"/>
+      <c r="Q48" s="163"/>
+      <c r="R48" s="163"/>
+      <c r="S48" s="163"/>
     </row>
     <row r="49" spans="1:19" ht="14.5">
       <c r="A49" s="29" t="s">
@@ -6373,25 +6373,25 @@
       </c>
     </row>
     <row r="58" spans="1:19" ht="14.5">
-      <c r="A58" s="175"/>
-      <c r="B58" s="160"/>
-      <c r="C58" s="160"/>
-      <c r="D58" s="160"/>
-      <c r="E58" s="160"/>
-      <c r="F58" s="160"/>
-      <c r="G58" s="160"/>
-      <c r="H58" s="177"/>
-      <c r="I58" s="160"/>
-      <c r="J58" s="160"/>
-      <c r="K58" s="160"/>
-      <c r="L58" s="160"/>
-      <c r="M58" s="160"/>
-      <c r="N58" s="160"/>
-      <c r="O58" s="160"/>
-      <c r="P58" s="160"/>
-      <c r="Q58" s="160"/>
-      <c r="R58" s="160"/>
-      <c r="S58" s="160"/>
+      <c r="A58" s="176"/>
+      <c r="B58" s="163"/>
+      <c r="C58" s="163"/>
+      <c r="D58" s="163"/>
+      <c r="E58" s="163"/>
+      <c r="F58" s="163"/>
+      <c r="G58" s="163"/>
+      <c r="H58" s="174"/>
+      <c r="I58" s="163"/>
+      <c r="J58" s="163"/>
+      <c r="K58" s="163"/>
+      <c r="L58" s="163"/>
+      <c r="M58" s="163"/>
+      <c r="N58" s="163"/>
+      <c r="O58" s="163"/>
+      <c r="P58" s="163"/>
+      <c r="Q58" s="163"/>
+      <c r="R58" s="163"/>
+      <c r="S58" s="163"/>
     </row>
     <row r="59" spans="1:19" ht="14.5">
       <c r="A59" s="37" t="s">
@@ -6643,25 +6643,25 @@
       </c>
     </row>
     <row r="65" spans="1:19" ht="14.5">
-      <c r="A65" s="175"/>
-      <c r="B65" s="160"/>
-      <c r="C65" s="160"/>
-      <c r="D65" s="160"/>
-      <c r="E65" s="160"/>
-      <c r="F65" s="160"/>
-      <c r="G65" s="160"/>
-      <c r="H65" s="177"/>
-      <c r="I65" s="160"/>
-      <c r="J65" s="160"/>
-      <c r="K65" s="160"/>
-      <c r="L65" s="160"/>
-      <c r="M65" s="160"/>
-      <c r="N65" s="160"/>
-      <c r="O65" s="160"/>
-      <c r="P65" s="160"/>
-      <c r="Q65" s="160"/>
-      <c r="R65" s="160"/>
-      <c r="S65" s="160"/>
+      <c r="A65" s="176"/>
+      <c r="B65" s="163"/>
+      <c r="C65" s="163"/>
+      <c r="D65" s="163"/>
+      <c r="E65" s="163"/>
+      <c r="F65" s="163"/>
+      <c r="G65" s="163"/>
+      <c r="H65" s="174"/>
+      <c r="I65" s="163"/>
+      <c r="J65" s="163"/>
+      <c r="K65" s="163"/>
+      <c r="L65" s="163"/>
+      <c r="M65" s="163"/>
+      <c r="N65" s="163"/>
+      <c r="O65" s="163"/>
+      <c r="P65" s="163"/>
+      <c r="Q65" s="163"/>
+      <c r="R65" s="163"/>
+      <c r="S65" s="163"/>
     </row>
     <row r="66" spans="1:19" ht="14.5">
       <c r="A66" s="29" t="s">
@@ -6910,25 +6910,25 @@
       </c>
     </row>
     <row r="72" spans="1:19" ht="14.5">
-      <c r="A72" s="175"/>
-      <c r="B72" s="160"/>
-      <c r="C72" s="160"/>
-      <c r="D72" s="160"/>
-      <c r="E72" s="160"/>
-      <c r="F72" s="160"/>
-      <c r="G72" s="160"/>
-      <c r="H72" s="177"/>
-      <c r="I72" s="160"/>
-      <c r="J72" s="160"/>
-      <c r="K72" s="160"/>
-      <c r="L72" s="160"/>
-      <c r="M72" s="160"/>
-      <c r="N72" s="160"/>
-      <c r="O72" s="160"/>
-      <c r="P72" s="160"/>
-      <c r="Q72" s="160"/>
-      <c r="R72" s="160"/>
-      <c r="S72" s="160"/>
+      <c r="A72" s="176"/>
+      <c r="B72" s="163"/>
+      <c r="C72" s="163"/>
+      <c r="D72" s="163"/>
+      <c r="E72" s="163"/>
+      <c r="F72" s="163"/>
+      <c r="G72" s="163"/>
+      <c r="H72" s="174"/>
+      <c r="I72" s="163"/>
+      <c r="J72" s="163"/>
+      <c r="K72" s="163"/>
+      <c r="L72" s="163"/>
+      <c r="M72" s="163"/>
+      <c r="N72" s="163"/>
+      <c r="O72" s="163"/>
+      <c r="P72" s="163"/>
+      <c r="Q72" s="163"/>
+      <c r="R72" s="163"/>
+      <c r="S72" s="163"/>
     </row>
     <row r="73" spans="1:19" ht="14.5">
       <c r="A73" s="37" t="s">
@@ -7217,25 +7217,25 @@
       </c>
     </row>
     <row r="80" spans="1:19" ht="14.5">
-      <c r="A80" s="175"/>
-      <c r="B80" s="170"/>
-      <c r="C80" s="170"/>
-      <c r="D80" s="170"/>
-      <c r="E80" s="170"/>
-      <c r="F80" s="170"/>
-      <c r="G80" s="170"/>
+      <c r="A80" s="176"/>
+      <c r="B80" s="173"/>
+      <c r="C80" s="173"/>
+      <c r="D80" s="173"/>
+      <c r="E80" s="173"/>
+      <c r="F80" s="173"/>
+      <c r="G80" s="173"/>
       <c r="H80" s="178"/>
-      <c r="I80" s="160"/>
-      <c r="J80" s="160"/>
-      <c r="K80" s="160"/>
-      <c r="L80" s="160"/>
-      <c r="M80" s="160"/>
-      <c r="N80" s="160"/>
-      <c r="O80" s="160"/>
-      <c r="P80" s="160"/>
-      <c r="Q80" s="160"/>
-      <c r="R80" s="160"/>
-      <c r="S80" s="160"/>
+      <c r="I80" s="163"/>
+      <c r="J80" s="163"/>
+      <c r="K80" s="163"/>
+      <c r="L80" s="163"/>
+      <c r="M80" s="163"/>
+      <c r="N80" s="163"/>
+      <c r="O80" s="163"/>
+      <c r="P80" s="163"/>
+      <c r="Q80" s="163"/>
+      <c r="R80" s="163"/>
+      <c r="S80" s="163"/>
     </row>
     <row r="81" spans="1:19" ht="14.5">
       <c r="A81" s="29" t="s">
@@ -7732,25 +7732,25 @@
       </c>
     </row>
     <row r="94" spans="1:19" ht="14.5">
-      <c r="A94" s="175"/>
-      <c r="B94" s="170"/>
-      <c r="C94" s="170"/>
-      <c r="D94" s="170"/>
-      <c r="E94" s="170"/>
-      <c r="F94" s="170"/>
-      <c r="G94" s="170"/>
-      <c r="H94" s="177"/>
-      <c r="I94" s="160"/>
-      <c r="J94" s="160"/>
-      <c r="K94" s="160"/>
-      <c r="L94" s="160"/>
-      <c r="M94" s="160"/>
-      <c r="N94" s="160"/>
-      <c r="O94" s="160"/>
-      <c r="P94" s="160"/>
-      <c r="Q94" s="160"/>
-      <c r="R94" s="160"/>
-      <c r="S94" s="160"/>
+      <c r="A94" s="176"/>
+      <c r="B94" s="173"/>
+      <c r="C94" s="173"/>
+      <c r="D94" s="173"/>
+      <c r="E94" s="173"/>
+      <c r="F94" s="173"/>
+      <c r="G94" s="173"/>
+      <c r="H94" s="174"/>
+      <c r="I94" s="163"/>
+      <c r="J94" s="163"/>
+      <c r="K94" s="163"/>
+      <c r="L94" s="163"/>
+      <c r="M94" s="163"/>
+      <c r="N94" s="163"/>
+      <c r="O94" s="163"/>
+      <c r="P94" s="163"/>
+      <c r="Q94" s="163"/>
+      <c r="R94" s="163"/>
+      <c r="S94" s="163"/>
     </row>
     <row r="95" spans="1:19" ht="14.5">
       <c r="A95" s="37" t="s">
@@ -8039,25 +8039,25 @@
       </c>
     </row>
     <row r="102" spans="1:19" ht="14.5">
-      <c r="A102" s="179"/>
-      <c r="B102" s="170"/>
-      <c r="C102" s="170"/>
-      <c r="D102" s="170"/>
-      <c r="E102" s="170"/>
-      <c r="F102" s="170"/>
-      <c r="G102" s="170"/>
-      <c r="H102" s="177"/>
-      <c r="I102" s="160"/>
-      <c r="J102" s="160"/>
-      <c r="K102" s="160"/>
-      <c r="L102" s="160"/>
-      <c r="M102" s="160"/>
-      <c r="N102" s="160"/>
-      <c r="O102" s="160"/>
-      <c r="P102" s="160"/>
-      <c r="Q102" s="160"/>
-      <c r="R102" s="160"/>
-      <c r="S102" s="160"/>
+      <c r="A102" s="175"/>
+      <c r="B102" s="173"/>
+      <c r="C102" s="173"/>
+      <c r="D102" s="173"/>
+      <c r="E102" s="173"/>
+      <c r="F102" s="173"/>
+      <c r="G102" s="173"/>
+      <c r="H102" s="174"/>
+      <c r="I102" s="163"/>
+      <c r="J102" s="163"/>
+      <c r="K102" s="163"/>
+      <c r="L102" s="163"/>
+      <c r="M102" s="163"/>
+      <c r="N102" s="163"/>
+      <c r="O102" s="163"/>
+      <c r="P102" s="163"/>
+      <c r="Q102" s="163"/>
+      <c r="R102" s="163"/>
+      <c r="S102" s="163"/>
     </row>
     <row r="103" spans="1:19" ht="14.5">
       <c r="A103" s="29" t="s">
@@ -8198,25 +8198,25 @@
       </c>
     </row>
     <row r="106" spans="1:19" ht="14.5">
-      <c r="A106" s="175"/>
-      <c r="B106" s="170"/>
-      <c r="C106" s="170"/>
-      <c r="D106" s="170"/>
-      <c r="E106" s="170"/>
-      <c r="F106" s="170"/>
-      <c r="G106" s="170"/>
-      <c r="H106" s="177"/>
-      <c r="I106" s="160"/>
-      <c r="J106" s="160"/>
-      <c r="K106" s="160"/>
-      <c r="L106" s="160"/>
-      <c r="M106" s="160"/>
-      <c r="N106" s="160"/>
-      <c r="O106" s="160"/>
-      <c r="P106" s="160"/>
-      <c r="Q106" s="160"/>
-      <c r="R106" s="160"/>
-      <c r="S106" s="160"/>
+      <c r="A106" s="176"/>
+      <c r="B106" s="173"/>
+      <c r="C106" s="173"/>
+      <c r="D106" s="173"/>
+      <c r="E106" s="173"/>
+      <c r="F106" s="173"/>
+      <c r="G106" s="173"/>
+      <c r="H106" s="174"/>
+      <c r="I106" s="163"/>
+      <c r="J106" s="163"/>
+      <c r="K106" s="163"/>
+      <c r="L106" s="163"/>
+      <c r="M106" s="163"/>
+      <c r="N106" s="163"/>
+      <c r="O106" s="163"/>
+      <c r="P106" s="163"/>
+      <c r="Q106" s="163"/>
+      <c r="R106" s="163"/>
+      <c r="S106" s="163"/>
     </row>
     <row r="107" spans="1:19" ht="14.5">
       <c r="A107" s="37" t="s">
@@ -8357,13 +8357,13 @@
       </c>
     </row>
     <row r="110" spans="1:19" ht="14.5">
-      <c r="A110" s="179"/>
-      <c r="B110" s="170"/>
-      <c r="C110" s="170"/>
-      <c r="D110" s="170"/>
-      <c r="E110" s="170"/>
-      <c r="F110" s="170"/>
-      <c r="G110" s="170"/>
+      <c r="A110" s="175"/>
+      <c r="B110" s="173"/>
+      <c r="C110" s="173"/>
+      <c r="D110" s="173"/>
+      <c r="E110" s="173"/>
+      <c r="F110" s="173"/>
+      <c r="G110" s="173"/>
       <c r="H110" s="53"/>
       <c r="I110" s="53"/>
       <c r="J110" s="53"/>
@@ -8452,36 +8452,36 @@
       </c>
     </row>
     <row r="112" spans="1:19" ht="14.5">
-      <c r="A112" s="175"/>
-      <c r="B112" s="170"/>
-      <c r="C112" s="170"/>
-      <c r="D112" s="170"/>
-      <c r="E112" s="170"/>
-      <c r="F112" s="170"/>
-      <c r="G112" s="170"/>
-      <c r="H112" s="177"/>
-      <c r="I112" s="160"/>
-      <c r="J112" s="160"/>
-      <c r="K112" s="160"/>
-      <c r="L112" s="160"/>
-      <c r="M112" s="160"/>
-      <c r="N112" s="160"/>
-      <c r="O112" s="160"/>
-      <c r="P112" s="160"/>
-      <c r="Q112" s="160"/>
-      <c r="R112" s="160"/>
-      <c r="S112" s="160"/>
+      <c r="A112" s="176"/>
+      <c r="B112" s="173"/>
+      <c r="C112" s="173"/>
+      <c r="D112" s="173"/>
+      <c r="E112" s="173"/>
+      <c r="F112" s="173"/>
+      <c r="G112" s="173"/>
+      <c r="H112" s="174"/>
+      <c r="I112" s="163"/>
+      <c r="J112" s="163"/>
+      <c r="K112" s="163"/>
+      <c r="L112" s="163"/>
+      <c r="M112" s="163"/>
+      <c r="N112" s="163"/>
+      <c r="O112" s="163"/>
+      <c r="P112" s="163"/>
+      <c r="Q112" s="163"/>
+      <c r="R112" s="163"/>
+      <c r="S112" s="163"/>
     </row>
     <row r="113" spans="1:19" ht="14.5">
-      <c r="A113" s="175" t="s">
+      <c r="A113" s="176" t="s">
         <v>155</v>
       </c>
-      <c r="B113" s="176"/>
-      <c r="C113" s="176"/>
-      <c r="D113" s="176"/>
-      <c r="E113" s="176"/>
-      <c r="F113" s="176"/>
-      <c r="G113" s="176"/>
+      <c r="B113" s="177"/>
+      <c r="C113" s="177"/>
+      <c r="D113" s="177"/>
+      <c r="E113" s="177"/>
+      <c r="F113" s="177"/>
+      <c r="G113" s="177"/>
       <c r="H113" s="53"/>
       <c r="I113" s="53"/>
       <c r="J113" s="53"/>
@@ -8610,7 +8610,7 @@
       <c r="A117" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="B117" s="181" t="s">
+      <c r="B117" s="128" t="s">
         <v>239</v>
       </c>
       <c r="C117" s="82"/>
@@ -8642,7 +8642,7 @@
       <c r="A118" s="87" t="s">
         <v>240</v>
       </c>
-      <c r="B118" s="181" t="s">
+      <c r="B118" s="128" t="s">
         <v>241</v>
       </c>
       <c r="C118" s="82"/>
@@ -8814,25 +8814,25 @@
       </c>
     </row>
     <row r="122" spans="1:19" ht="14.5">
-      <c r="A122" s="179"/>
-      <c r="B122" s="170"/>
-      <c r="C122" s="170"/>
-      <c r="D122" s="170"/>
-      <c r="E122" s="170"/>
-      <c r="F122" s="170"/>
-      <c r="G122" s="170"/>
-      <c r="H122" s="177"/>
-      <c r="I122" s="160"/>
-      <c r="J122" s="160"/>
-      <c r="K122" s="160"/>
-      <c r="L122" s="160"/>
-      <c r="M122" s="160"/>
-      <c r="N122" s="160"/>
-      <c r="O122" s="160"/>
-      <c r="P122" s="160"/>
-      <c r="Q122" s="160"/>
-      <c r="R122" s="160"/>
-      <c r="S122" s="160"/>
+      <c r="A122" s="175"/>
+      <c r="B122" s="173"/>
+      <c r="C122" s="173"/>
+      <c r="D122" s="173"/>
+      <c r="E122" s="173"/>
+      <c r="F122" s="173"/>
+      <c r="G122" s="173"/>
+      <c r="H122" s="174"/>
+      <c r="I122" s="163"/>
+      <c r="J122" s="163"/>
+      <c r="K122" s="163"/>
+      <c r="L122" s="163"/>
+      <c r="M122" s="163"/>
+      <c r="N122" s="163"/>
+      <c r="O122" s="163"/>
+      <c r="P122" s="163"/>
+      <c r="Q122" s="163"/>
+      <c r="R122" s="163"/>
+      <c r="S122" s="163"/>
     </row>
     <row r="123" spans="1:19" ht="14.5">
       <c r="A123" s="49"/>
@@ -8909,25 +8909,25 @@
       </c>
     </row>
     <row r="124" spans="1:19" ht="14.5">
-      <c r="A124" s="175"/>
-      <c r="B124" s="170"/>
-      <c r="C124" s="170"/>
-      <c r="D124" s="170"/>
-      <c r="E124" s="170"/>
-      <c r="F124" s="170"/>
-      <c r="G124" s="170"/>
-      <c r="H124" s="177"/>
-      <c r="I124" s="160"/>
-      <c r="J124" s="160"/>
-      <c r="K124" s="160"/>
-      <c r="L124" s="160"/>
-      <c r="M124" s="160"/>
-      <c r="N124" s="160"/>
-      <c r="O124" s="160"/>
-      <c r="P124" s="160"/>
-      <c r="Q124" s="160"/>
-      <c r="R124" s="160"/>
-      <c r="S124" s="160"/>
+      <c r="A124" s="176"/>
+      <c r="B124" s="173"/>
+      <c r="C124" s="173"/>
+      <c r="D124" s="173"/>
+      <c r="E124" s="173"/>
+      <c r="F124" s="173"/>
+      <c r="G124" s="173"/>
+      <c r="H124" s="174"/>
+      <c r="I124" s="163"/>
+      <c r="J124" s="163"/>
+      <c r="K124" s="163"/>
+      <c r="L124" s="163"/>
+      <c r="M124" s="163"/>
+      <c r="N124" s="163"/>
+      <c r="O124" s="163"/>
+      <c r="P124" s="163"/>
+      <c r="Q124" s="163"/>
+      <c r="R124" s="163"/>
+      <c r="S124" s="163"/>
     </row>
     <row r="125" spans="1:19" ht="14.5">
       <c r="A125" s="51"/>
@@ -9120,6 +9120,29 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="H5:S5"/>
+    <mergeCell ref="H6:S6"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="H33:S33"/>
+    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="H48:S48"/>
+    <mergeCell ref="H58:S58"/>
+    <mergeCell ref="A65:G65"/>
+    <mergeCell ref="H65:S65"/>
+    <mergeCell ref="A72:G72"/>
+    <mergeCell ref="H72:S72"/>
+    <mergeCell ref="A58:G58"/>
+    <mergeCell ref="H80:S80"/>
+    <mergeCell ref="A94:G94"/>
+    <mergeCell ref="H94:S94"/>
+    <mergeCell ref="A102:G102"/>
+    <mergeCell ref="H102:S102"/>
+    <mergeCell ref="A80:G80"/>
     <mergeCell ref="H106:S106"/>
     <mergeCell ref="A122:G122"/>
     <mergeCell ref="A124:G124"/>
@@ -9130,29 +9153,6 @@
     <mergeCell ref="A106:G106"/>
     <mergeCell ref="A110:G110"/>
     <mergeCell ref="A112:G112"/>
-    <mergeCell ref="H80:S80"/>
-    <mergeCell ref="A94:G94"/>
-    <mergeCell ref="H94:S94"/>
-    <mergeCell ref="A102:G102"/>
-    <mergeCell ref="H102:S102"/>
-    <mergeCell ref="A80:G80"/>
-    <mergeCell ref="H58:S58"/>
-    <mergeCell ref="A65:G65"/>
-    <mergeCell ref="H65:S65"/>
-    <mergeCell ref="A72:G72"/>
-    <mergeCell ref="H72:S72"/>
-    <mergeCell ref="A58:G58"/>
-    <mergeCell ref="H5:S5"/>
-    <mergeCell ref="H6:S6"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="H33:S33"/>
-    <mergeCell ref="A48:G48"/>
-    <mergeCell ref="H48:S48"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9161,7 +9161,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC06A08A-6CE1-40F5-B6A3-44424F0D131E}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -9175,26 +9175,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.5">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
+      <c r="A1" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
     </row>
     <row r="2" spans="1:4" ht="18.5">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="183" t="s">
         <v>235</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
+      <c r="B2" s="183"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="160"/>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="160"/>
+      <c r="A3" s="163"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
@@ -9245,124 +9245,135 @@
     </row>
     <row r="8" spans="1:4">
       <c r="B8" t="str">
+        <f>Summary!$B$27</f>
+        <v>Embracing the Spirit Growth Grants</v>
+      </c>
+      <c r="C8" s="75">
+        <f>Summary!$E$27</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="75"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" t="str">
         <f>Summary!$B$28</f>
         <v xml:space="preserve">Designated fund </v>
       </c>
-      <c r="C8" s="75">
+      <c r="C9" s="75">
         <f>Summary!$E$28</f>
         <v>0</v>
       </c>
-      <c r="D8" s="75"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="C9" s="75"/>
       <c r="D9" s="75"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" t="s">
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
         <v>230</v>
       </c>
-      <c r="B10" t="str">
+      <c r="B11" t="str">
         <f>Summary!$G$34</f>
         <v>Expenditure Total</v>
       </c>
-      <c r="C10" s="76">
+      <c r="C11" s="76">
         <f>Summary!$K$34</f>
         <v>0</v>
       </c>
-      <c r="D10" s="75"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="B11" t="s">
+      <c r="D11" s="75"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" t="s">
         <v>233</v>
       </c>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75">
-        <f>SUM(C4:C8)-C10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
       <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
+      <c r="D12" s="75">
+        <f>SUM(C4:C9)-C11</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" t="s">
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
         <v>229</v>
       </c>
-      <c r="B13" t="str">
+      <c r="B14" t="str">
         <f>Summary!$B$33</f>
         <v>Trustee Fund Transfers</v>
       </c>
-      <c r="C13" s="75"/>
-      <c r="D13" s="77">
+      <c r="C14" s="75"/>
+      <c r="D14" s="77">
         <f>Summary!$E$33</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="B14" t="s">
+    <row r="15" spans="1:4">
+      <c r="B15" t="s">
         <v>234</v>
       </c>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75">
-        <f>D11+D13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
       <c r="C15" s="75"/>
-      <c r="D15" s="75"/>
+      <c r="D15" s="75">
+        <f>D12+D14</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="C16" s="75"/>
       <c r="D16" s="75"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" t="s">
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
         <v>229</v>
       </c>
-      <c r="B17" t="str">
+      <c r="B18" t="str">
         <f>Summary!$B$32</f>
         <v>Beginning Balance</v>
       </c>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75">
+      <c r="C18" s="75"/>
+      <c r="D18" s="75">
         <f>Summary!$C$32</f>
         <v>48417.44000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="B18" t="s">
+    <row r="19" spans="1:4">
+      <c r="B19" t="s">
         <v>231</v>
       </c>
-      <c r="C18" s="75"/>
-      <c r="D18" s="81">
+      <c r="C19" s="75"/>
+      <c r="D19" s="81">
         <v>4150</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="C19" s="75"/>
-      <c r="D19" s="75"/>
     </row>
     <row r="20" spans="1:4">
       <c r="C20" s="75"/>
       <c r="D20" s="75"/>
     </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1">
-      <c r="B21" t="s">
+    <row r="21" spans="1:4">
+      <c r="C21" s="75"/>
+      <c r="D21" s="75"/>
+    </row>
+    <row r="22" spans="1:4" ht="15" thickBot="1">
+      <c r="B22" t="s">
         <v>232</v>
       </c>
-      <c r="C21" s="75"/>
-      <c r="D21" s="78">
-        <f>D14+D17+D18</f>
+      <c r="C22" s="75"/>
+      <c r="D22" s="78">
+        <f>D15+D18+D19</f>
         <v>52567.44000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" thickTop="1">
-      <c r="B22" s="85"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="89"/>
+    <row r="23" spans="1:4" ht="15" thickTop="1">
+      <c r="B23" s="85"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/src/main/resources/Financial_Report_2022.xlsx
+++ b/src/main/resources/Financial_Report_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\projects\church-app\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F051C835-1089-4D75-9BDE-24D074746C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D231B98-887F-40B5-9AF3-9EE2C7026DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14160" yWindow="-15090" windowWidth="14160" windowHeight="13950" xr2:uid="{7F8DEBD6-32E0-4BF8-87C4-D1C13E633F04}"/>
+    <workbookView xWindow="15990" yWindow="-15090" windowWidth="16515" windowHeight="11085" xr2:uid="{7F8DEBD6-32E0-4BF8-87C4-D1C13E633F04}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -1512,44 +1512,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1595,6 +1557,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1627,30 +1627,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1994,69 +1994,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.5">
-      <c r="A1" s="131" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
+      <c r="A1" s="148" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="148"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
+      <c r="I1" s="150"/>
+      <c r="J1" s="150"/>
+      <c r="K1" s="150"/>
     </row>
     <row r="2" spans="1:11" ht="18.5">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="148" t="s">
         <v>251</v>
       </c>
-      <c r="B2" s="132"/>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="150"/>
     </row>
     <row r="3" spans="1:11" ht="11.5" customHeight="1">
-      <c r="A3" s="134"/>
-      <c r="B3" s="135"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
+      <c r="A3" s="151"/>
+      <c r="B3" s="152"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="154"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="138" t="s">
+      <c r="A4" s="155" t="s">
         <v>221</v>
       </c>
-      <c r="B4" s="139"/>
-      <c r="C4" s="140"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="141"/>
-      <c r="G4" s="142" t="s">
+      <c r="B4" s="156"/>
+      <c r="C4" s="157"/>
+      <c r="D4" s="157"/>
+      <c r="E4" s="158"/>
+      <c r="G4" s="159" t="s">
         <v>223</v>
       </c>
-      <c r="H4" s="143"/>
-      <c r="I4" s="143"/>
-      <c r="J4" s="143"/>
-      <c r="K4" s="144"/>
+      <c r="H4" s="160"/>
+      <c r="I4" s="160"/>
+      <c r="J4" s="160"/>
+      <c r="K4" s="161"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="152" t="s">
+      <c r="A5" s="138" t="s">
         <v>195</v>
       </c>
-      <c r="B5" s="153"/>
+      <c r="B5" s="139"/>
       <c r="C5" s="118" t="str">
         <f>Offering!E5</f>
         <v>'22 Budget</v>
@@ -2068,10 +2068,10 @@
         <f>Offering!G5</f>
         <v>'22 Actual</v>
       </c>
-      <c r="G5" s="146" t="s">
+      <c r="G5" s="132" t="s">
         <v>224</v>
       </c>
-      <c r="H5" s="147"/>
+      <c r="H5" s="133"/>
       <c r="I5" s="118" t="str">
         <f>Expenditure!E4</f>
         <v>'22 Budget</v>
@@ -2497,11 +2497,11 @@
         <f>Offering!$G$17</f>
         <v>0</v>
       </c>
-      <c r="G17" s="157"/>
-      <c r="H17" s="158"/>
-      <c r="I17" s="158"/>
-      <c r="J17" s="158"/>
-      <c r="K17" s="159"/>
+      <c r="G17" s="143"/>
+      <c r="H17" s="144"/>
+      <c r="I17" s="144"/>
+      <c r="J17" s="144"/>
+      <c r="K17" s="145"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="55"/>
@@ -2645,10 +2645,10 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="148" t="s">
+      <c r="A22" s="134" t="s">
         <v>211</v>
       </c>
-      <c r="B22" s="149"/>
+      <c r="B22" s="135"/>
       <c r="C22" s="104">
         <f t="shared" ref="C22:E22" si="2">SUBTOTAL(9,C6:C21)</f>
         <v>144200</v>
@@ -2680,11 +2680,11 @@
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="154"/>
-      <c r="B23" s="155"/>
-      <c r="C23" s="155"/>
-      <c r="D23" s="155"/>
-      <c r="E23" s="156"/>
+      <c r="A23" s="140"/>
+      <c r="B23" s="141"/>
+      <c r="C23" s="141"/>
+      <c r="D23" s="141"/>
+      <c r="E23" s="142"/>
       <c r="G23" s="62"/>
       <c r="H23" s="129" t="str">
         <f>Expenditure!B119</f>
@@ -2840,10 +2840,10 @@
       <c r="K28" s="61"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="148" t="s">
+      <c r="A29" s="134" t="s">
         <v>243</v>
       </c>
-      <c r="B29" s="149"/>
+      <c r="B29" s="135"/>
       <c r="C29" s="104">
         <f>SUBTOTAL(9,C24:C28)</f>
         <v>40500</v>
@@ -2863,11 +2863,11 @@
       <c r="K29" s="61"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="154"/>
-      <c r="B30" s="155"/>
-      <c r="C30" s="155"/>
-      <c r="D30" s="155"/>
-      <c r="E30" s="156"/>
+      <c r="A30" s="140"/>
+      <c r="B30" s="141"/>
+      <c r="C30" s="141"/>
+      <c r="D30" s="141"/>
+      <c r="E30" s="142"/>
       <c r="G30" s="60"/>
       <c r="H30" s="93"/>
       <c r="I30" s="93"/>
@@ -2938,10 +2938,10 @@
       <c r="K33" s="61"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="150" t="s">
+      <c r="A34" s="136" t="s">
         <v>244</v>
       </c>
-      <c r="B34" s="151"/>
+      <c r="B34" s="137"/>
       <c r="C34" s="108">
         <f>SUBTOTAL(9,C6:C33)</f>
         <v>248117.44</v>
@@ -2954,10 +2954,10 @@
         <f>SUBTOTAL(9,E6:E33)</f>
         <v>0</v>
       </c>
-      <c r="G34" s="160" t="s">
+      <c r="G34" s="146" t="s">
         <v>246</v>
       </c>
-      <c r="H34" s="161"/>
+      <c r="H34" s="147"/>
       <c r="I34" s="116">
         <f>SUBTOTAL(9,I6:I25)</f>
         <v>248117.44</v>
@@ -2972,22 +2972,27 @@
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="145" t="s">
+      <c r="A36" s="131" t="s">
         <v>227</v>
       </c>
-      <c r="B36" s="145"/>
-      <c r="C36" s="145"/>
-      <c r="D36" s="145"/>
-      <c r="E36" s="145"/>
-      <c r="F36" s="145"/>
-      <c r="G36" s="145"/>
-      <c r="H36" s="145"/>
-      <c r="I36" s="145"/>
-      <c r="J36" s="145"/>
-      <c r="K36" s="145"/>
+      <c r="B36" s="131"/>
+      <c r="C36" s="131"/>
+      <c r="D36" s="131"/>
+      <c r="E36" s="131"/>
+      <c r="F36" s="131"/>
+      <c r="G36" s="131"/>
+      <c r="H36" s="131"/>
+      <c r="I36" s="131"/>
+      <c r="J36" s="131"/>
+      <c r="K36" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="G4:K4"/>
     <mergeCell ref="A36:K36"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A29:B29"/>
@@ -2998,11 +3003,6 @@
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="G17:K17"/>
     <mergeCell ref="G34:H34"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="G4:K4"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4350,14 +4350,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.5">
-      <c r="A1" s="179" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
+      <c r="A1" s="174" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="175"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
       <c r="G1" s="167"/>
       <c r="H1" s="24"/>
       <c r="I1" s="24"/>
@@ -4373,14 +4373,14 @@
       <c r="S1" s="24"/>
     </row>
     <row r="2" spans="1:19" ht="15.5">
-      <c r="A2" s="181">
+      <c r="A2" s="176">
         <v>2022</v>
       </c>
-      <c r="B2" s="179"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="175"/>
       <c r="G2" s="167"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -4396,14 +4396,14 @@
       <c r="S2" s="24"/>
     </row>
     <row r="3" spans="1:19" ht="15.5">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="177" t="s">
         <v>222</v>
       </c>
-      <c r="B3" s="182"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="179"/>
-      <c r="E3" s="180"/>
-      <c r="F3" s="180"/>
+      <c r="B3" s="177"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="175"/>
+      <c r="F3" s="175"/>
       <c r="G3" s="167"/>
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
@@ -4478,14 +4478,14 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="14.5">
-      <c r="A5" s="176"/>
-      <c r="B5" s="177"/>
-      <c r="C5" s="177"/>
-      <c r="D5" s="177"/>
-      <c r="E5" s="177"/>
-      <c r="F5" s="177"/>
-      <c r="G5" s="177"/>
-      <c r="H5" s="174"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="179"/>
+      <c r="C5" s="179"/>
+      <c r="D5" s="179"/>
+      <c r="E5" s="179"/>
+      <c r="F5" s="179"/>
+      <c r="G5" s="179"/>
+      <c r="H5" s="180"/>
       <c r="I5" s="163"/>
       <c r="J5" s="163"/>
       <c r="K5" s="163"/>
@@ -4499,16 +4499,16 @@
       <c r="S5" s="163"/>
     </row>
     <row r="6" spans="1:19" ht="14.5">
-      <c r="A6" s="176" t="s">
+      <c r="A6" s="178" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="177"/>
-      <c r="C6" s="177"/>
-      <c r="D6" s="177"/>
-      <c r="E6" s="177"/>
-      <c r="F6" s="177"/>
-      <c r="G6" s="177"/>
-      <c r="H6" s="174"/>
+      <c r="B6" s="179"/>
+      <c r="C6" s="179"/>
+      <c r="D6" s="179"/>
+      <c r="E6" s="179"/>
+      <c r="F6" s="179"/>
+      <c r="G6" s="179"/>
+      <c r="H6" s="180"/>
       <c r="I6" s="163"/>
       <c r="J6" s="163"/>
       <c r="K6" s="163"/>
@@ -5434,14 +5434,14 @@
       </c>
     </row>
     <row r="33" spans="1:19" ht="14.5">
-      <c r="A33" s="176"/>
+      <c r="A33" s="178"/>
       <c r="B33" s="173"/>
       <c r="C33" s="173"/>
       <c r="D33" s="173"/>
       <c r="E33" s="173"/>
       <c r="F33" s="173"/>
       <c r="G33" s="173"/>
-      <c r="H33" s="178"/>
+      <c r="H33" s="181"/>
       <c r="I33" s="163"/>
       <c r="J33" s="163"/>
       <c r="K33" s="163"/>
@@ -5995,14 +5995,14 @@
       </c>
     </row>
     <row r="48" spans="1:19" ht="14.5">
-      <c r="A48" s="176"/>
+      <c r="A48" s="178"/>
       <c r="B48" s="163"/>
       <c r="C48" s="163"/>
       <c r="D48" s="163"/>
       <c r="E48" s="163"/>
       <c r="F48" s="163"/>
       <c r="G48" s="163"/>
-      <c r="H48" s="174"/>
+      <c r="H48" s="180"/>
       <c r="I48" s="163"/>
       <c r="J48" s="163"/>
       <c r="K48" s="163"/>
@@ -6373,14 +6373,14 @@
       </c>
     </row>
     <row r="58" spans="1:19" ht="14.5">
-      <c r="A58" s="176"/>
+      <c r="A58" s="178"/>
       <c r="B58" s="163"/>
       <c r="C58" s="163"/>
       <c r="D58" s="163"/>
       <c r="E58" s="163"/>
       <c r="F58" s="163"/>
       <c r="G58" s="163"/>
-      <c r="H58" s="174"/>
+      <c r="H58" s="180"/>
       <c r="I58" s="163"/>
       <c r="J58" s="163"/>
       <c r="K58" s="163"/>
@@ -6643,14 +6643,14 @@
       </c>
     </row>
     <row r="65" spans="1:19" ht="14.5">
-      <c r="A65" s="176"/>
+      <c r="A65" s="178"/>
       <c r="B65" s="163"/>
       <c r="C65" s="163"/>
       <c r="D65" s="163"/>
       <c r="E65" s="163"/>
       <c r="F65" s="163"/>
       <c r="G65" s="163"/>
-      <c r="H65" s="174"/>
+      <c r="H65" s="180"/>
       <c r="I65" s="163"/>
       <c r="J65" s="163"/>
       <c r="K65" s="163"/>
@@ -6910,14 +6910,14 @@
       </c>
     </row>
     <row r="72" spans="1:19" ht="14.5">
-      <c r="A72" s="176"/>
+      <c r="A72" s="178"/>
       <c r="B72" s="163"/>
       <c r="C72" s="163"/>
       <c r="D72" s="163"/>
       <c r="E72" s="163"/>
       <c r="F72" s="163"/>
       <c r="G72" s="163"/>
-      <c r="H72" s="174"/>
+      <c r="H72" s="180"/>
       <c r="I72" s="163"/>
       <c r="J72" s="163"/>
       <c r="K72" s="163"/>
@@ -7217,14 +7217,14 @@
       </c>
     </row>
     <row r="80" spans="1:19" ht="14.5">
-      <c r="A80" s="176"/>
+      <c r="A80" s="178"/>
       <c r="B80" s="173"/>
       <c r="C80" s="173"/>
       <c r="D80" s="173"/>
       <c r="E80" s="173"/>
       <c r="F80" s="173"/>
       <c r="G80" s="173"/>
-      <c r="H80" s="178"/>
+      <c r="H80" s="181"/>
       <c r="I80" s="163"/>
       <c r="J80" s="163"/>
       <c r="K80" s="163"/>
@@ -7732,14 +7732,14 @@
       </c>
     </row>
     <row r="94" spans="1:19" ht="14.5">
-      <c r="A94" s="176"/>
+      <c r="A94" s="178"/>
       <c r="B94" s="173"/>
       <c r="C94" s="173"/>
       <c r="D94" s="173"/>
       <c r="E94" s="173"/>
       <c r="F94" s="173"/>
       <c r="G94" s="173"/>
-      <c r="H94" s="174"/>
+      <c r="H94" s="180"/>
       <c r="I94" s="163"/>
       <c r="J94" s="163"/>
       <c r="K94" s="163"/>
@@ -8039,14 +8039,14 @@
       </c>
     </row>
     <row r="102" spans="1:19" ht="14.5">
-      <c r="A102" s="175"/>
+      <c r="A102" s="182"/>
       <c r="B102" s="173"/>
       <c r="C102" s="173"/>
       <c r="D102" s="173"/>
       <c r="E102" s="173"/>
       <c r="F102" s="173"/>
       <c r="G102" s="173"/>
-      <c r="H102" s="174"/>
+      <c r="H102" s="180"/>
       <c r="I102" s="163"/>
       <c r="J102" s="163"/>
       <c r="K102" s="163"/>
@@ -8198,14 +8198,14 @@
       </c>
     </row>
     <row r="106" spans="1:19" ht="14.5">
-      <c r="A106" s="176"/>
+      <c r="A106" s="178"/>
       <c r="B106" s="173"/>
       <c r="C106" s="173"/>
       <c r="D106" s="173"/>
       <c r="E106" s="173"/>
       <c r="F106" s="173"/>
       <c r="G106" s="173"/>
-      <c r="H106" s="174"/>
+      <c r="H106" s="180"/>
       <c r="I106" s="163"/>
       <c r="J106" s="163"/>
       <c r="K106" s="163"/>
@@ -8357,7 +8357,7 @@
       </c>
     </row>
     <row r="110" spans="1:19" ht="14.5">
-      <c r="A110" s="175"/>
+      <c r="A110" s="182"/>
       <c r="B110" s="173"/>
       <c r="C110" s="173"/>
       <c r="D110" s="173"/>
@@ -8452,14 +8452,14 @@
       </c>
     </row>
     <row r="112" spans="1:19" ht="14.5">
-      <c r="A112" s="176"/>
+      <c r="A112" s="178"/>
       <c r="B112" s="173"/>
       <c r="C112" s="173"/>
       <c r="D112" s="173"/>
       <c r="E112" s="173"/>
       <c r="F112" s="173"/>
       <c r="G112" s="173"/>
-      <c r="H112" s="174"/>
+      <c r="H112" s="180"/>
       <c r="I112" s="163"/>
       <c r="J112" s="163"/>
       <c r="K112" s="163"/>
@@ -8473,15 +8473,15 @@
       <c r="S112" s="163"/>
     </row>
     <row r="113" spans="1:19" ht="14.5">
-      <c r="A113" s="176" t="s">
+      <c r="A113" s="178" t="s">
         <v>155</v>
       </c>
-      <c r="B113" s="177"/>
-      <c r="C113" s="177"/>
-      <c r="D113" s="177"/>
-      <c r="E113" s="177"/>
-      <c r="F113" s="177"/>
-      <c r="G113" s="177"/>
+      <c r="B113" s="179"/>
+      <c r="C113" s="179"/>
+      <c r="D113" s="179"/>
+      <c r="E113" s="179"/>
+      <c r="F113" s="179"/>
+      <c r="G113" s="179"/>
       <c r="H113" s="53"/>
       <c r="I113" s="53"/>
       <c r="J113" s="53"/>
@@ -8814,14 +8814,14 @@
       </c>
     </row>
     <row r="122" spans="1:19" ht="14.5">
-      <c r="A122" s="175"/>
+      <c r="A122" s="182"/>
       <c r="B122" s="173"/>
       <c r="C122" s="173"/>
       <c r="D122" s="173"/>
       <c r="E122" s="173"/>
       <c r="F122" s="173"/>
       <c r="G122" s="173"/>
-      <c r="H122" s="174"/>
+      <c r="H122" s="180"/>
       <c r="I122" s="163"/>
       <c r="J122" s="163"/>
       <c r="K122" s="163"/>
@@ -8909,14 +8909,14 @@
       </c>
     </row>
     <row r="124" spans="1:19" ht="14.5">
-      <c r="A124" s="176"/>
+      <c r="A124" s="178"/>
       <c r="B124" s="173"/>
       <c r="C124" s="173"/>
       <c r="D124" s="173"/>
       <c r="E124" s="173"/>
       <c r="F124" s="173"/>
       <c r="G124" s="173"/>
-      <c r="H124" s="174"/>
+      <c r="H124" s="180"/>
       <c r="I124" s="163"/>
       <c r="J124" s="163"/>
       <c r="K124" s="163"/>
@@ -9120,29 +9120,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="H5:S5"/>
-    <mergeCell ref="H6:S6"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="H33:S33"/>
-    <mergeCell ref="A48:G48"/>
-    <mergeCell ref="H48:S48"/>
-    <mergeCell ref="H58:S58"/>
-    <mergeCell ref="A65:G65"/>
-    <mergeCell ref="H65:S65"/>
-    <mergeCell ref="A72:G72"/>
-    <mergeCell ref="H72:S72"/>
-    <mergeCell ref="A58:G58"/>
-    <mergeCell ref="H80:S80"/>
-    <mergeCell ref="A94:G94"/>
-    <mergeCell ref="H94:S94"/>
-    <mergeCell ref="A102:G102"/>
-    <mergeCell ref="H102:S102"/>
-    <mergeCell ref="A80:G80"/>
     <mergeCell ref="H106:S106"/>
     <mergeCell ref="A122:G122"/>
     <mergeCell ref="A124:G124"/>
@@ -9153,6 +9130,29 @@
     <mergeCell ref="A106:G106"/>
     <mergeCell ref="A110:G110"/>
     <mergeCell ref="A112:G112"/>
+    <mergeCell ref="H80:S80"/>
+    <mergeCell ref="A94:G94"/>
+    <mergeCell ref="H94:S94"/>
+    <mergeCell ref="A102:G102"/>
+    <mergeCell ref="H102:S102"/>
+    <mergeCell ref="A80:G80"/>
+    <mergeCell ref="H58:S58"/>
+    <mergeCell ref="A65:G65"/>
+    <mergeCell ref="H65:S65"/>
+    <mergeCell ref="A72:G72"/>
+    <mergeCell ref="H72:S72"/>
+    <mergeCell ref="A58:G58"/>
+    <mergeCell ref="H5:S5"/>
+    <mergeCell ref="H6:S6"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="H33:S33"/>
+    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="H48:S48"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9164,7 +9164,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
